--- a/medicine/Psychotrope/Verre_à_bière/Verre_à_bière.xlsx
+++ b/medicine/Psychotrope/Verre_à_bière/Verre_à_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_bi%C3%A8re</t>
+          <t>Verre_à_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle verre à bière tout récipient destiné à boire de la bière.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_bi%C3%A8re</t>
+          <t>Verre_à_bière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cela peut paraître évident mais on parle de « verre » à bière seulement depuis que l'Homme maîtrise parfaitement la production et le façonnage du verre (XIXe siècle). Bien avant cette date, on buvait la bière dans des « pots à bière », sortes de bols en terre cuite plus ou moins évasés, ou alors, plus récemment, dans des récipients en métal (étain), en bois, en grès, en porcelaine, etc.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Verre_%C3%A0_bi%C3%A8re</t>
+          <t>Verre_à_bière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,48 @@
           <t>Variétés de verres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe une grande variété de formes de verres à bière qu'on peut regrouper sous deux principales catégories :
-Verres à pied
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verre_à_bière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Variétés de verres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Verres à pied</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ballon
 Bourgogne
 Calice
@@ -558,7 +610,43 @@
 Teku
 Tige
 Tulipe
-Verres sans pied
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verre_à_bière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_bi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Variétés de verres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Verres sans pied</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Altglass
 Bock
 Botte
@@ -586,33 +674,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Verre_%C3%A0_bi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Verre_à_bière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verre_%C3%A0_bi%C3%A8re</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Contenances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est très difficile de donner avec précision les noms de chaque contenance car ils peuvent varier d'une région à l'autre pour les appellations les plus « exotiques »[1]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très difficile de donner avec précision les noms de chaque contenance car ils peuvent varier d'une région à l'autre pour les appellations les plus « exotiques ». 
 La contenance des « bat » va de 33 cl à plus de 3 l.
 </t>
         </is>
